--- a/Jogos_do_Dia/2023-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1106,16 +1106,16 @@
         <v>2.84</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE4">
         <v>1.57</v>
@@ -1127,7 +1127,7 @@
         <v>2.42</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1147,13 +1147,13 @@
         <v>84</v>
       </c>
       <c r="F5">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1168,10 +1168,10 @@
         <v>2.41</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="N5">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="O5">
         <v>1.46</v>
@@ -1231,7 +1231,7 @@
         <v>3.42</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1251,13 +1251,13 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G6">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="H6">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="I6">
         <v>1.09</v>
@@ -1272,10 +1272,10 @@
         <v>2.7</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N6">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O6">
         <v>1.53</v>
@@ -1335,7 +1335,7 @@
         <v>3.48</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1355,13 +1355,13 @@
         <v>86</v>
       </c>
       <c r="F7">
-        <v>3.9</v>
+        <v>4.34</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="H7">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I7">
         <v>1.09</v>
@@ -1376,10 +1376,10 @@
         <v>2.65</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="O7">
         <v>1.53</v>
@@ -1439,7 +1439,7 @@
         <v>3.56</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1459,13 +1459,13 @@
         <v>87</v>
       </c>
       <c r="F8">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="G8">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>1.01</v>
@@ -1480,10 +1480,10 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="O8">
         <v>1.29</v>
@@ -1563,52 +1563,52 @@
         <v>88</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V9">
         <v>0.78</v>
@@ -1626,28 +1626,28 @@
         <v>3.07</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1667,13 +1667,13 @@
         <v>89</v>
       </c>
       <c r="F10">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="G10">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="H10">
-        <v>4.35</v>
+        <v>4.98</v>
       </c>
       <c r="I10">
         <v>1.06</v>
@@ -1688,10 +1688,10 @@
         <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="O10">
         <v>1.4</v>
@@ -1771,13 +1771,13 @@
         <v>90</v>
       </c>
       <c r="F11">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="I11">
         <v>1.08</v>
@@ -1792,10 +1792,10 @@
         <v>2.8</v>
       </c>
       <c r="M11">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="N11">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O11">
         <v>1.46</v>
@@ -1875,13 +1875,13 @@
         <v>91</v>
       </c>
       <c r="F12">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="I12">
         <v>1.04</v>
@@ -1896,10 +1896,10 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N12">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="O12">
         <v>1.3</v>
@@ -2000,10 +2000,10 @@
         <v>2.33</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="O13">
         <v>1.55</v>
@@ -2187,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="F15">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="G15">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="H15">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="I15">
         <v>1.08</v>
@@ -2208,10 +2208,10 @@
         <v>2.8</v>
       </c>
       <c r="M15">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="N15">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O15">
         <v>1.44</v>
@@ -2603,13 +2603,13 @@
         <v>98</v>
       </c>
       <c r="F19">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="G19">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="H19">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="I19">
         <v>1.09</v>
@@ -2624,10 +2624,10 @@
         <v>2.75</v>
       </c>
       <c r="M19">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -2707,13 +2707,13 @@
         <v>99</v>
       </c>
       <c r="F20">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="G20">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>1.02</v>
@@ -2791,7 +2791,7 @@
         <v>2.91</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2811,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="G21">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="I21">
         <v>1.1</v>
@@ -2832,10 +2832,10 @@
         <v>2.75</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="N21">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="O21">
         <v>1.51</v>
@@ -2874,28 +2874,28 @@
         <v>2.87</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2915,13 +2915,13 @@
         <v>101</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G22">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="H22">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -2936,10 +2936,10 @@
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="N22">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="O22">
         <v>1.36</v>
@@ -3019,13 +3019,13 @@
         <v>102</v>
       </c>
       <c r="F23">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="G23">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="H23">
-        <v>2.76</v>
+        <v>3.02</v>
       </c>
       <c r="I23">
         <v>1.12</v>
@@ -3034,16 +3034,16 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="L23">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M23">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="N23">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="O23">
         <v>1.67</v>
@@ -3123,13 +3123,13 @@
         <v>103</v>
       </c>
       <c r="F24">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="G24">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H24">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I24">
         <v>1.1</v>
@@ -3144,10 +3144,10 @@
         <v>2.55</v>
       </c>
       <c r="M24">
-        <v>2.19</v>
+        <v>2.33</v>
       </c>
       <c r="N24">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O24">
         <v>1.53</v>
@@ -3227,13 +3227,13 @@
         <v>104</v>
       </c>
       <c r="F25">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>4.55</v>
+        <v>5.7</v>
       </c>
       <c r="H25">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="I25">
         <v>1.03</v>
@@ -3248,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="N25">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -3435,13 +3435,13 @@
         <v>106</v>
       </c>
       <c r="F27">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="G27">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H27">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="I27">
         <v>1.09</v>
@@ -3456,10 +3456,10 @@
         <v>2.7</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="N27">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O27">
         <v>1.53</v>
@@ -3539,10 +3539,10 @@
         <v>107</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="G28">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="H28">
         <v>2.19</v>
@@ -3560,10 +3560,10 @@
         <v>2.87</v>
       </c>
       <c r="M28">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O28">
         <v>1.51</v>
@@ -3747,13 +3747,13 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G30">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="H30">
-        <v>4.78</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3768,10 +3768,10 @@
         <v>3.3</v>
       </c>
       <c r="M30">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="N30">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <v>1.4</v>
@@ -3851,13 +3851,13 @@
         <v>110</v>
       </c>
       <c r="F31">
-        <v>2.91</v>
+        <v>3.69</v>
       </c>
       <c r="G31">
-        <v>2.96</v>
+        <v>3.34</v>
       </c>
       <c r="H31">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="I31">
         <v>1.05</v>
@@ -3872,10 +3872,10 @@
         <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O31">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>2.1</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>1.76</v>
@@ -1043,13 +1043,13 @@
         <v>83</v>
       </c>
       <c r="F4">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="G4">
-        <v>3.96</v>
+        <v>3.8</v>
       </c>
       <c r="H4">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1.08</v>
@@ -1067,7 +1067,7 @@
         <v>2.15</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O4">
         <v>1.46</v>
@@ -1147,13 +1147,13 @@
         <v>84</v>
       </c>
       <c r="F5">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H5">
-        <v>4.82</v>
+        <v>4.75</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1168,10 +1168,10 @@
         <v>2.41</v>
       </c>
       <c r="M5">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
         <v>1.46</v>
@@ -1251,13 +1251,13 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G6">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="I6">
         <v>1.09</v>
@@ -1266,16 +1266,16 @@
         <v>7.5</v>
       </c>
       <c r="K6">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="M6">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="N6">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="O6">
         <v>1.53</v>
@@ -1355,13 +1355,13 @@
         <v>86</v>
       </c>
       <c r="F7">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="G7">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="H7">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="I7">
         <v>1.09</v>
@@ -1370,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O7">
         <v>1.53</v>
@@ -1459,10 +1459,10 @@
         <v>87</v>
       </c>
       <c r="F8">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="G8">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H8">
         <v>21</v>
@@ -1480,10 +1480,10 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="N8">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="O8">
         <v>1.29</v>
@@ -1563,13 +1563,13 @@
         <v>88</v>
       </c>
       <c r="F9">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
         <v>2.8</v>
       </c>
       <c r="H9">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="I9">
         <v>1.09</v>
@@ -1578,16 +1578,16 @@
         <v>5.75</v>
       </c>
       <c r="K9">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L9">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M9">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="N9">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
         <v>1.61</v>
@@ -1667,13 +1667,13 @@
         <v>89</v>
       </c>
       <c r="F10">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>4.98</v>
+        <v>4.5</v>
       </c>
       <c r="I10">
         <v>1.06</v>
@@ -1771,13 +1771,13 @@
         <v>90</v>
       </c>
       <c r="F11">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>1.08</v>
@@ -1875,13 +1875,13 @@
         <v>91</v>
       </c>
       <c r="F12">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
         <v>1.04</v>
@@ -1896,10 +1896,10 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="O12">
         <v>1.3</v>
@@ -1979,13 +1979,13 @@
         <v>92</v>
       </c>
       <c r="F13">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="G13">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="I13">
         <v>1.09</v>
@@ -2000,10 +2000,10 @@
         <v>2.33</v>
       </c>
       <c r="M13">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="N13">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
         <v>1.55</v>
@@ -2083,13 +2083,13 @@
         <v>93</v>
       </c>
       <c r="F14">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G14">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="H14">
-        <v>3.82</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
         <v>1.03</v>
@@ -2187,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="F15">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="G15">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="I15">
         <v>1.08</v>
@@ -2208,10 +2208,10 @@
         <v>2.8</v>
       </c>
       <c r="M15">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N15">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O15">
         <v>1.44</v>
@@ -2603,13 +2603,13 @@
         <v>98</v>
       </c>
       <c r="F19">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="G19">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H19">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
         <v>1.09</v>
@@ -2707,13 +2707,13 @@
         <v>99</v>
       </c>
       <c r="F20">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G20">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>1.02</v>
@@ -2811,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="G21">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="I21">
         <v>1.1</v>
@@ -2832,10 +2832,10 @@
         <v>2.75</v>
       </c>
       <c r="M21">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O21">
         <v>1.51</v>
@@ -2915,13 +2915,13 @@
         <v>101</v>
       </c>
       <c r="F22">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="G22">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="H22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I22">
         <v>1.04</v>
@@ -3019,13 +3019,13 @@
         <v>102</v>
       </c>
       <c r="F23">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G23">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="H23">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1.12</v>
@@ -3034,16 +3034,16 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="L23">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M23">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="N23">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O23">
         <v>1.67</v>
@@ -3123,13 +3123,13 @@
         <v>103</v>
       </c>
       <c r="F24">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="G24">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I24">
         <v>1.1</v>
@@ -3144,7 +3144,7 @@
         <v>2.55</v>
       </c>
       <c r="M24">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="N24">
         <v>1.53</v>
@@ -3227,13 +3227,13 @@
         <v>104</v>
       </c>
       <c r="F25">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G25">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="H25">
-        <v>8.9</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>1.03</v>
@@ -3248,10 +3248,10 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="N25">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -3435,13 +3435,13 @@
         <v>106</v>
       </c>
       <c r="F27">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="G27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="I27">
         <v>1.09</v>
@@ -3456,7 +3456,7 @@
         <v>2.7</v>
       </c>
       <c r="M27">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N27">
         <v>1.53</v>
@@ -3539,13 +3539,13 @@
         <v>107</v>
       </c>
       <c r="F28">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="G28">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="H28">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -3747,13 +3747,13 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G30">
-        <v>3.5</v>
+        <v>4.19</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>5.38</v>
       </c>
       <c r="I30">
         <v>1.04</v>
@@ -3851,13 +3851,13 @@
         <v>110</v>
       </c>
       <c r="F31">
-        <v>3.69</v>
+        <v>5.09</v>
       </c>
       <c r="G31">
-        <v>3.34</v>
+        <v>3.76</v>
       </c>
       <c r="H31">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="I31">
         <v>1.05</v>
@@ -3872,10 +3872,10 @@
         <v>3.2</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="N31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="O31">
         <v>1.44</v>
